--- a/Ausgabe/schuelerlisten.xlsx
+++ b/Ausgabe/schuelerlisten.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="252">
   <si>
     <t>ASS231</t>
   </si>
@@ -60,6 +60,18 @@
     <t>10:35-11:20</t>
   </si>
   <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Sparkasse Aachen</t>
+  </si>
+  <si>
+    <t>Bankkaufleute, Kaufleute für Büromanagement</t>
+  </si>
+  <si>
+    <t>Albrecht, Thibault</t>
+  </si>
+  <si>
     <t>Dummy</t>
   </si>
   <si>
@@ -69,18 +81,6 @@
     <t>Kaufleute für Büromanagement</t>
   </si>
   <si>
-    <t>Albrecht, Thibault</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Sparkasse Aachen</t>
-  </si>
-  <si>
-    <t>Bankkaufleute, Kaufleute für Büromanagement</t>
-  </si>
-  <si>
     <t>Almoukayed, Ahmad</t>
   </si>
   <si>
@@ -153,6 +153,9 @@
     <t>Kovacevic, Dusan</t>
   </si>
   <si>
+    <t>RWTH Aachen</t>
+  </si>
+  <si>
     <t>Lausberg, Hannah</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
     <t>Ovalioglu, Sezen</t>
   </si>
   <si>
-    <t>RWTH Aachen</t>
-  </si>
-  <si>
     <t>Steuerberaterkammer Köln</t>
   </si>
   <si>
@@ -207,196 +207,196 @@
     <t>Tahiri, Sohail</t>
   </si>
   <si>
+    <t>HöH234</t>
+  </si>
+  <si>
+    <t>Ademi, Tread</t>
+  </si>
+  <si>
+    <t>Auto Thüllen</t>
+  </si>
+  <si>
+    <t>Automobilkaufleute</t>
+  </si>
+  <si>
+    <t>Adeosun, Oluwaseyi Kehinde</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>FH Aachen - Studienberatung</t>
+  </si>
+  <si>
+    <t>volle FHR-Reife Mindestvoraussetzung</t>
+  </si>
+  <si>
+    <t>Unternehmen der Immobilienbranche</t>
+  </si>
+  <si>
+    <t>Immobilienkaufleute</t>
+  </si>
+  <si>
+    <t>Akkus, Metehan</t>
+  </si>
+  <si>
+    <t>Bah-Traore, Malcolm</t>
+  </si>
+  <si>
+    <t>Benamar, Rayan</t>
+  </si>
+  <si>
+    <t>Zoll Aachen</t>
+  </si>
+  <si>
+    <t>Beamt*in im mittleren und gehobenen Dienst</t>
+  </si>
+  <si>
+    <t>Delibalta, Alan</t>
+  </si>
+  <si>
+    <t>El Sayed, Karim</t>
+  </si>
+  <si>
+    <t>Gotiashvili, Lizi</t>
+  </si>
+  <si>
+    <t>Grouls, Moritz Leonhard</t>
+  </si>
+  <si>
+    <t>Harth, Johanna Rosalia</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
+    <t>Zentis</t>
+  </si>
+  <si>
+    <t>Hukportie, Esther Joy</t>
+  </si>
+  <si>
+    <t>Ibhaze, Jaimy Jesse</t>
+  </si>
+  <si>
+    <t>Kassouy, Mohamed</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Arbeitsagentur</t>
+  </si>
+  <si>
+    <t>Fachangestellte für Arbeitsmarktdiestleistungen/Duale Studiengänge</t>
+  </si>
+  <si>
+    <t>Lücker, Laurin</t>
+  </si>
+  <si>
+    <t>Medvedev, Timur</t>
+  </si>
+  <si>
+    <t>OGS Kita</t>
+  </si>
+  <si>
+    <t>Erzieher*in</t>
+  </si>
+  <si>
+    <t>Azubis aus Zahnarztpraxen</t>
+  </si>
+  <si>
+    <t>Zahnmedizinische Fachangestellte</t>
+  </si>
+  <si>
+    <t>Özarslan, Nilay</t>
+  </si>
+  <si>
+    <t>Salon Haarscharf</t>
+  </si>
+  <si>
+    <t>Friseur*in</t>
+  </si>
+  <si>
+    <t>Petrovic, Zoran</t>
+  </si>
+  <si>
+    <t>Reçberlik, Azeem</t>
+  </si>
+  <si>
+    <t>Rumor, Anton Wilem</t>
+  </si>
+  <si>
+    <t>Sadequi, Elias</t>
+  </si>
+  <si>
+    <t>Sanli, Bünyamin</t>
+  </si>
+  <si>
+    <t>Sol, Çigdem</t>
+  </si>
+  <si>
+    <t>Thi Khanh, Linh Ha</t>
+  </si>
+  <si>
+    <t>Ausbildung Finanzwirt*in</t>
+  </si>
+  <si>
+    <t>HöH233</t>
+  </si>
+  <si>
+    <t>Beglerovic, Amina</t>
+  </si>
+  <si>
+    <t>Berrer, Emily</t>
+  </si>
+  <si>
+    <t>Rechtsanwaltsberufe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechtsanwaltsfachangestellte </t>
+  </si>
+  <si>
+    <t>Brim, Shyar</t>
+  </si>
+  <si>
+    <t>Demir, Ahmet Hezdar</t>
+  </si>
+  <si>
+    <t>Doan, Minh Duc</t>
+  </si>
+  <si>
+    <t>Dyll, Valeria</t>
+  </si>
+  <si>
+    <t>Hein, Alex Max</t>
+  </si>
+  <si>
+    <t>Hermanns, Fabian</t>
+  </si>
+  <si>
+    <t>Isik, Hejar</t>
+  </si>
+  <si>
+    <t>Kayongo, Erich</t>
+  </si>
+  <si>
+    <t>Kidane, Even</t>
+  </si>
+  <si>
+    <t>Korkut, Pelsin</t>
+  </si>
+  <si>
+    <t>Kroll, Amy</t>
+  </si>
+  <si>
+    <t>Langendorf, Cynthia</t>
+  </si>
+  <si>
     <t>Debeka</t>
   </si>
   <si>
     <t>Kaufleute für Versicherungen und Finanzen</t>
-  </si>
-  <si>
-    <t>HöH234</t>
-  </si>
-  <si>
-    <t>Ademi, Tread</t>
-  </si>
-  <si>
-    <t>Auto Thüllen</t>
-  </si>
-  <si>
-    <t>Automobilkaufleute</t>
-  </si>
-  <si>
-    <t>Adeosun, Oluwaseyi Kehinde</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>FH Aachen - Studienberatung</t>
-  </si>
-  <si>
-    <t>volle FHR-Reife Mindestvoraussetzung</t>
-  </si>
-  <si>
-    <t>Unternehmen der Immobilienbranche</t>
-  </si>
-  <si>
-    <t>Immobilienkaufleute</t>
-  </si>
-  <si>
-    <t>Akkus, Metehan</t>
-  </si>
-  <si>
-    <t>Bah-Traore, Malcolm</t>
-  </si>
-  <si>
-    <t>Benamar, Rayan</t>
-  </si>
-  <si>
-    <t>Zoll Aachen</t>
-  </si>
-  <si>
-    <t>Beamt*in im mittleren und gehobenen Dienst</t>
-  </si>
-  <si>
-    <t>Delibalta, Alan</t>
-  </si>
-  <si>
-    <t>El Sayed, Karim</t>
-  </si>
-  <si>
-    <t>Gotiashvili, Lizi</t>
-  </si>
-  <si>
-    <t>Grouls, Moritz Leonhard</t>
-  </si>
-  <si>
-    <t>Harth, Johanna Rosalia</t>
-  </si>
-  <si>
-    <t>Zentis</t>
-  </si>
-  <si>
-    <t>Hukportie, Esther Joy</t>
-  </si>
-  <si>
-    <t>Ibhaze, Jaimy Jesse</t>
-  </si>
-  <si>
-    <t>Kassouy, Mohamed</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Arbeitsagentur</t>
-  </si>
-  <si>
-    <t>Fachangestellte für Arbeitsmarktdiestleistungen/Duale Studiengänge</t>
-  </si>
-  <si>
-    <t>Lücker, Laurin</t>
-  </si>
-  <si>
-    <t>Medvedev, Timur</t>
-  </si>
-  <si>
-    <t>OGS Kita</t>
-  </si>
-  <si>
-    <t>Erzieher*in</t>
-  </si>
-  <si>
-    <t>Azubis aus Zahnarztpraxen</t>
-  </si>
-  <si>
-    <t>Zahnmedizinische Fachangestellte</t>
-  </si>
-  <si>
-    <t>Özarslan, Nilay</t>
-  </si>
-  <si>
-    <t>Salon Haarscharf</t>
-  </si>
-  <si>
-    <t>Friseur*in</t>
-  </si>
-  <si>
-    <t>Petrovic, Zoran</t>
-  </si>
-  <si>
-    <t>Reçberlik, Azeem</t>
-  </si>
-  <si>
-    <t>Rumor, Anton Wilem</t>
-  </si>
-  <si>
-    <t>Sadequi, Elias</t>
-  </si>
-  <si>
-    <t>Sanli, Bünyamin</t>
-  </si>
-  <si>
-    <t>Sol, Çigdem</t>
-  </si>
-  <si>
-    <t>Thi Khanh, Linh Ha</t>
-  </si>
-  <si>
-    <t>Ausbildung Finanzwirt*in</t>
-  </si>
-  <si>
-    <t>HöH233</t>
-  </si>
-  <si>
-    <t>Beglerovic, Amina</t>
-  </si>
-  <si>
-    <t>Berrer, Emily</t>
-  </si>
-  <si>
-    <t>Rechtsanwaltsberufe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechtsanwaltsfachangestellte </t>
-  </si>
-  <si>
-    <t>Brim, Shyar</t>
-  </si>
-  <si>
-    <t>Demir, Ahmet Hezdar</t>
-  </si>
-  <si>
-    <t>Doan, Minh Duc</t>
-  </si>
-  <si>
-    <t>Dyll, Valeria</t>
-  </si>
-  <si>
-    <t>Hein, Alex Max</t>
-  </si>
-  <si>
-    <t>Hermanns, Fabian</t>
-  </si>
-  <si>
-    <t>Isik, Hejar</t>
-  </si>
-  <si>
-    <t>Kayongo, Erich</t>
-  </si>
-  <si>
-    <t>Kidane, Even</t>
-  </si>
-  <si>
-    <t>Korkut, Pelsin</t>
-  </si>
-  <si>
-    <t>Kroll, Amy</t>
-  </si>
-  <si>
-    <t>Langendorf, Cynthia</t>
   </si>
   <si>
     <t>Martin, Nele Sophie</t>
@@ -1584,10 +1584,10 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="60" ht="12.75">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12.75">
@@ -1801,13 +1801,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12.75">
@@ -1818,13 +1818,13 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="12.75"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="66" ht="12.75">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12.75">
@@ -1888,7 +1888,7 @@
     </row>
     <row r="72" ht="12.75">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="12.75">
@@ -1910,13 +1910,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12.75">
@@ -1927,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>53</v>
@@ -1988,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -2024,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>57</v>
@@ -2041,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>58</v>
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
@@ -2145,7 +2145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75">
+    <row r="101" spans="1:4" ht="12.75">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -2153,13 +2153,10 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="12.75"/>
@@ -2167,12 +2164,12 @@
     <row r="104" ht="12.75"/>
     <row r="105" ht="12.75">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" ht="12.75">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="12.75">
@@ -2197,10 +2194,10 @@
         <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="12.75">
@@ -2211,24 +2208,24 @@
         <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" ht="12.75"/>
     <row r="111" ht="12.75">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" ht="12.75">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="12.75">
@@ -2250,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E114" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="12.75">
@@ -2267,24 +2264,24 @@
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" ht="12.75"/>
     <row r="117" ht="12.75">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" ht="12.75">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="12.75">
@@ -2306,13 +2303,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="12.75">
@@ -2323,24 +2320,24 @@
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" ht="12.75"/>
     <row r="123" ht="12.75">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" ht="12.75">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="12.75">
@@ -2362,13 +2359,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="12.75">
@@ -2382,10 +2379,10 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" ht="12.75"/>
@@ -2393,12 +2390,12 @@
     <row r="130" ht="12.75"/>
     <row r="131" ht="12.75">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" ht="12.75">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="12.75">
@@ -2420,16 +2417,16 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E134" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="12.75">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="12.75">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2437,21 +2434,24 @@
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E135" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="136" ht="12.75"/>
     <row r="137" ht="12.75">
       <c r="A137" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" ht="12.75">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="12.75">
@@ -2476,10 +2476,10 @@
         <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="12.75">
@@ -2490,7 +2490,7 @@
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
         <v>53</v>
@@ -2502,12 +2502,12 @@
     <row r="142" ht="12.75"/>
     <row r="143" ht="12.75">
       <c r="A143" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" ht="12.75">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="12.75">
@@ -2532,10 +2532,10 @@
         <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="12.75">
@@ -2546,24 +2546,24 @@
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" ht="12.75"/>
     <row r="149" ht="12.75">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" ht="12.75">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="12.75">
@@ -2585,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
         <v>57</v>
@@ -2605,10 +2605,10 @@
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" ht="12.75"/>
@@ -2616,12 +2616,12 @@
     <row r="156" ht="12.75"/>
     <row r="157" ht="12.75">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" ht="12.75">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="12.75">
@@ -2643,13 +2643,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E160" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="12.75">
@@ -2663,21 +2663,21 @@
         <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E161" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" ht="12.75"/>
     <row r="163" ht="12.75">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" ht="12.75">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="12.75">
@@ -2699,10 +2699,10 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D166" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
@@ -2716,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
         <v>57</v>
@@ -2728,12 +2728,12 @@
     <row r="168" ht="12.75"/>
     <row r="169" ht="12.75">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" ht="12.75">
       <c r="A170" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="12.75">
@@ -2755,13 +2755,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D172" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E172" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="12.75">
@@ -2772,24 +2772,24 @@
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E173" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" ht="12.75"/>
     <row r="175" ht="12.75">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" ht="12.75">
       <c r="A176" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="12.75">
@@ -2814,10 +2814,10 @@
         <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="12.75">
@@ -2828,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D179" t="s">
         <v>53</v>
@@ -2842,12 +2842,12 @@
     <row r="182" ht="12.75"/>
     <row r="183" ht="12.75">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" ht="12.75">
       <c r="A184" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="12.75">
@@ -2886,24 +2886,24 @@
         <v>12</v>
       </c>
       <c r="C187" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187" t="s">
+        <v>88</v>
+      </c>
+      <c r="E187" t="s">
         <v>89</v>
-      </c>
-      <c r="D187" t="s">
-        <v>90</v>
-      </c>
-      <c r="E187" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="188" ht="12.75"/>
     <row r="189" ht="12.75">
       <c r="A189" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" ht="12.75">
       <c r="A190" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="12.75">
@@ -2925,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E192" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="12.75">
@@ -2942,24 +2942,24 @@
         <v>12</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" ht="12.75"/>
     <row r="195" ht="12.75">
       <c r="A195" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" ht="12.75">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="12.75">
@@ -2981,13 +2981,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D198" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E198" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="12.75">
@@ -2998,24 +2998,24 @@
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E199" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="200" ht="12.75"/>
     <row r="201" ht="12.75">
       <c r="A201" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" ht="12.75">
       <c r="A202" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="12.75">
@@ -3054,13 +3054,13 @@
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E205" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="206" ht="12.75"/>
@@ -3068,12 +3068,12 @@
     <row r="208" ht="12.75"/>
     <row r="209" ht="12.75">
       <c r="A209" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" ht="12.75">
       <c r="A210" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="12.75">
@@ -3095,13 +3095,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E212" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="12.75">
@@ -3112,24 +3112,24 @@
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E213" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" ht="12.75"/>
     <row r="215" ht="12.75">
       <c r="A215" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" ht="12.75">
       <c r="A216" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="12.75">
@@ -3154,10 +3154,10 @@
         <v>37</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E218" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="12.75">
@@ -3168,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D219" t="s">
         <v>53</v>
@@ -3180,12 +3180,12 @@
     <row r="220" ht="12.75"/>
     <row r="221" ht="12.75">
       <c r="A221" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" ht="12.75">
       <c r="A222" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="12.75">
@@ -3207,13 +3207,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D224" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E224" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="12.75">
@@ -3224,24 +3224,24 @@
         <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E225" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="226" ht="12.75"/>
     <row r="227" ht="12.75">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="228" ht="12.75">
       <c r="A228" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="12.75">
@@ -3266,10 +3266,10 @@
         <v>37</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="12.75">
@@ -3280,13 +3280,13 @@
         <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E231" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" ht="12.75"/>
@@ -3294,12 +3294,12 @@
     <row r="234" ht="12.75"/>
     <row r="235" ht="12.75">
       <c r="A235" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" ht="12.75">
       <c r="A236" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="12.75">
@@ -3321,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D238" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E238" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="12.75">
@@ -3338,24 +3338,24 @@
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D239" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E239" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" ht="12.75"/>
     <row r="241" ht="12.75">
       <c r="A241" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="242" ht="12.75">
       <c r="A242" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="12.75">
@@ -3377,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D244" t="s">
         <v>24</v>
@@ -3403,12 +3403,12 @@
     <row r="246" ht="12.75"/>
     <row r="247" ht="12.75">
       <c r="A247" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" ht="12.75">
       <c r="A248" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="12.75">
@@ -3430,13 +3430,13 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E250" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="12.75">
@@ -3447,24 +3447,24 @@
         <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252" ht="12.75"/>
     <row r="253" ht="12.75">
       <c r="A253" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" ht="12.75">
       <c r="A254" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="12.75">
@@ -3486,13 +3486,13 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D256" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E256" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="12.75">
@@ -3517,12 +3517,12 @@
     <row r="260" ht="12.75"/>
     <row r="261" ht="12.75">
       <c r="A261" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="262" ht="12.75">
       <c r="A262" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="12.75">
@@ -3544,13 +3544,13 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D264" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E264" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="12.75">
@@ -3561,24 +3561,24 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D265" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E265" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" ht="12.75"/>
     <row r="267" ht="12.75">
       <c r="A267" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" ht="12.75">
       <c r="A268" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="12.75">
@@ -3603,10 +3603,10 @@
         <v>37</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E270" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="12.75">
@@ -3617,24 +3617,24 @@
         <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D271" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E271" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" ht="12.75"/>
     <row r="273" ht="12.75">
       <c r="A273" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274" ht="12.75">
       <c r="A274" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="12.75">
@@ -3656,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D276" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E276" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="12.75">
@@ -3673,7 +3673,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D277" t="s">
         <v>53</v>
@@ -3685,12 +3685,12 @@
     <row r="278" ht="12.75"/>
     <row r="279" ht="12.75">
       <c r="A279" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="280" ht="12.75">
       <c r="A280" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="12.75">
@@ -3721,7 +3721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="12.75">
+    <row r="283" spans="1:4" ht="12.75">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -3729,13 +3729,10 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>63</v>
-      </c>
-      <c r="E283" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284" ht="12.75"/>
@@ -3743,12 +3740,12 @@
     <row r="286" ht="12.75"/>
     <row r="287" ht="12.75">
       <c r="A287" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="288" ht="12.75">
       <c r="A288" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="12.75">
@@ -3779,7 +3776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="12.75">
+    <row r="291" spans="1:4" ht="12.75">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -3787,24 +3784,21 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
-        <v>63</v>
-      </c>
-      <c r="E291" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" ht="12.75"/>
     <row r="293" ht="12.75">
       <c r="A293" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="294" ht="12.75">
       <c r="A294" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="12.75">
@@ -3829,10 +3823,10 @@
         <v>37</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E296" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="12.75">
@@ -3843,24 +3837,24 @@
         <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D297" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E297" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="298" ht="12.75"/>
     <row r="299" ht="12.75">
       <c r="A299" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" ht="12.75">
       <c r="A300" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="12.75">
@@ -3891,7 +3885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="12.75">
+    <row r="303" spans="1:4" ht="12.75">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -3899,24 +3893,21 @@
         <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D303" t="s">
-        <v>63</v>
-      </c>
-      <c r="E303" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" ht="12.75"/>
     <row r="305" ht="12.75">
       <c r="A305" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" ht="12.75">
       <c r="A306" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="12.75">
@@ -3941,10 +3932,10 @@
         <v>37</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E308" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="12.75">
@@ -3955,13 +3946,13 @@
         <v>12</v>
       </c>
       <c r="C309" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D309" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E309" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" ht="12.75"/>
@@ -3969,12 +3960,12 @@
     <row r="312" ht="12.75"/>
     <row r="313" ht="12.75">
       <c r="A313" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" ht="12.75">
       <c r="A314" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="12.75">
@@ -3999,10 +3990,10 @@
         <v>37</v>
       </c>
       <c r="D316" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E316" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="12.75">
@@ -4013,24 +4004,24 @@
         <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D317" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E317" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="318" ht="12.75"/>
     <row r="319" ht="12.75">
       <c r="A319" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" ht="12.75">
       <c r="A320" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="12.75">
@@ -4055,10 +4046,10 @@
         <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E322" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="12.75">
@@ -4069,24 +4060,24 @@
         <v>12</v>
       </c>
       <c r="C323" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D323" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E323" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="324" ht="12.75"/>
     <row r="325" ht="12.75">
       <c r="A325" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="326" ht="12.75">
       <c r="A326" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="12.75">
@@ -4108,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D328" t="s">
         <v>58</v>
@@ -4125,24 +4116,24 @@
         <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D329" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E329" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="330" ht="12.75"/>
     <row r="331" ht="12.75">
       <c r="A331" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="332" ht="12.75">
       <c r="A332" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="12.75">
@@ -4164,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D334" t="s">
         <v>58</v>
@@ -4181,13 +4172,13 @@
         <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D335" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E335" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="336" ht="12.75"/>
@@ -4195,12 +4186,12 @@
     <row r="338" ht="12.75"/>
     <row r="339" ht="12.75">
       <c r="A339" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" ht="12.75">
       <c r="A340" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="12.75">
@@ -4239,19 +4230,19 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D343" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E343" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="344" ht="12.75"/>
     <row r="345" ht="12.75">
       <c r="A345" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="346" ht="12.75">
@@ -4278,13 +4269,13 @@
         <v>7</v>
       </c>
       <c r="C348" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E348" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="12.75">
@@ -4295,19 +4286,19 @@
         <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D349" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" ht="12.75"/>
     <row r="351" ht="12.75">
       <c r="A351" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="352" ht="12.75">
@@ -4351,19 +4342,19 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D355" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E355" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="356" ht="12.75"/>
     <row r="357" ht="12.75">
       <c r="A357" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="358" ht="12.75">
@@ -4390,13 +4381,13 @@
         <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D360" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E360" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="12.75">
@@ -4421,7 +4412,7 @@
     <row r="364" ht="12.75"/>
     <row r="365" ht="12.75">
       <c r="A365" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="366" ht="12.75">
@@ -4448,13 +4439,13 @@
         <v>7</v>
       </c>
       <c r="C368" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E368" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="12.75">
@@ -4465,19 +4456,19 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D369" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E369" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" ht="12.75"/>
     <row r="371" ht="12.75">
       <c r="A371" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" ht="12.75">
@@ -4521,19 +4512,19 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D375" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E375" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" ht="12.75"/>
     <row r="377" ht="12.75">
       <c r="A377" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" ht="12.75">
@@ -4560,13 +4551,13 @@
         <v>7</v>
       </c>
       <c r="C380" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D380" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E380" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="12.75">
@@ -4577,19 +4568,19 @@
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E381" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="382" ht="12.75"/>
     <row r="383" ht="12.75">
       <c r="A383" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="384" ht="12.75">
@@ -4616,13 +4607,13 @@
         <v>7</v>
       </c>
       <c r="C386" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E386" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="12.75">
@@ -4633,7 +4624,7 @@
         <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D387" t="s">
         <v>53</v>
@@ -4647,7 +4638,7 @@
     <row r="390" ht="12.75"/>
     <row r="391" ht="12.75">
       <c r="A391" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="392" ht="12.75">
@@ -4677,10 +4668,10 @@
         <v>37</v>
       </c>
       <c r="D394" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E394" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="12.75">
@@ -4691,19 +4682,19 @@
         <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D395" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E395" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="396" ht="12.75"/>
     <row r="397" ht="12.75">
       <c r="A397" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="398" ht="12.75">
@@ -4730,13 +4721,13 @@
         <v>7</v>
       </c>
       <c r="C400" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D400" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E400" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="12.75">
@@ -4783,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="C406" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D406" t="s">
         <v>57</v>
@@ -4803,7 +4794,7 @@
         <v>140</v>
       </c>
       <c r="D407" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E407" t="s">
         <v>10</v>
@@ -4839,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="C412" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D412" t="s">
         <v>24</v>
@@ -4856,10 +4847,10 @@
         <v>33</v>
       </c>
       <c r="D413" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E413" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="414" ht="12.75"/>
@@ -4894,13 +4885,13 @@
         <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D420" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E420" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="12.75">
@@ -4911,13 +4902,13 @@
         <v>12</v>
       </c>
       <c r="C421" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D421" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E421" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="422" ht="12.75"/>
@@ -4950,13 +4941,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D426" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E426" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="12.75">
@@ -4967,13 +4958,13 @@
         <v>12</v>
       </c>
       <c r="C427" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D427" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E427" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="428" ht="12.75"/>
@@ -5006,13 +4997,13 @@
         <v>7</v>
       </c>
       <c r="C432" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D432" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E432" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="12.75">
@@ -5023,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="C433" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D433" t="s">
         <v>58</v>
@@ -5062,13 +5053,13 @@
         <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D438" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E438" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="12.75">
@@ -5137,13 +5128,13 @@
         <v>12</v>
       </c>
       <c r="C447" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D447" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E447" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="448" ht="12.75"/>
@@ -5176,7 +5167,7 @@
         <v>7</v>
       </c>
       <c r="C452" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D452" t="s">
         <v>24</v>
@@ -5193,10 +5184,10 @@
         <v>33</v>
       </c>
       <c r="D453" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E453" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="454" ht="12.75"/>
@@ -5229,13 +5220,13 @@
         <v>7</v>
       </c>
       <c r="C458" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D458" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E458" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="12.75">
@@ -5246,13 +5237,13 @@
         <v>12</v>
       </c>
       <c r="C459" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D459" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E459" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="460" ht="12.75"/>
@@ -5285,13 +5276,13 @@
         <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D464" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E464" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="12.75">
@@ -5340,13 +5331,13 @@
         <v>7</v>
       </c>
       <c r="C472" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D472" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E472" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="12.75">
@@ -5357,13 +5348,13 @@
         <v>12</v>
       </c>
       <c r="C473" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D473" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E473" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="474" ht="12.75"/>
@@ -5396,13 +5387,13 @@
         <v>7</v>
       </c>
       <c r="C478" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D478" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E478" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="12.75">
@@ -5413,13 +5404,13 @@
         <v>12</v>
       </c>
       <c r="C479" t="s">
+        <v>87</v>
+      </c>
+      <c r="D479" t="s">
+        <v>88</v>
+      </c>
+      <c r="E479" t="s">
         <v>89</v>
-      </c>
-      <c r="D479" t="s">
-        <v>90</v>
-      </c>
-      <c r="E479" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="480" ht="12.75"/>
@@ -5469,13 +5460,13 @@
         <v>12</v>
       </c>
       <c r="C485" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D485" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E485" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="486" ht="12.75"/>
@@ -5525,13 +5516,13 @@
         <v>12</v>
       </c>
       <c r="C491" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D491" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E491" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="492" ht="12.75"/>
@@ -5566,13 +5557,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D498" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E498" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="12.75">
@@ -5583,13 +5574,13 @@
         <v>12</v>
       </c>
       <c r="C499" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D499" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E499" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="500" ht="12.75"/>
@@ -5639,13 +5630,13 @@
         <v>12</v>
       </c>
       <c r="C505" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D505" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E505" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="506" ht="12.75"/>
@@ -5695,13 +5686,13 @@
         <v>12</v>
       </c>
       <c r="C511" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D511" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E511" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="512" ht="12.75"/>
@@ -5751,13 +5742,13 @@
         <v>12</v>
       </c>
       <c r="C517" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D517" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E517" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="518" ht="12.75"/>
@@ -5795,10 +5786,10 @@
         <v>37</v>
       </c>
       <c r="D524" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E524" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="12.75">
@@ -5809,13 +5800,13 @@
         <v>12</v>
       </c>
       <c r="C525" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D525" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E525" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="526" ht="12.75"/>
@@ -5848,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="C530" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D530" t="s">
         <v>24</v>
@@ -5865,10 +5856,10 @@
         <v>33</v>
       </c>
       <c r="D531" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E531" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="532" ht="12.75"/>
@@ -5901,13 +5892,13 @@
         <v>7</v>
       </c>
       <c r="C536" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D536" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E536" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="12.75">
@@ -5957,13 +5948,13 @@
         <v>7</v>
       </c>
       <c r="C542" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D542" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E542" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="12.75">
@@ -5974,13 +5965,13 @@
         <v>12</v>
       </c>
       <c r="C543" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D543" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E543" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="544" ht="12.75"/>
@@ -6015,13 +6006,13 @@
         <v>7</v>
       </c>
       <c r="C550" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D550" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E550" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="12.75">
@@ -6032,13 +6023,13 @@
         <v>12</v>
       </c>
       <c r="C551" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D551" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E551" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="552" ht="12.75"/>
@@ -6071,7 +6062,7 @@
         <v>7</v>
       </c>
       <c r="C556" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D556" t="s">
         <v>24</v>
@@ -6088,10 +6079,10 @@
         <v>33</v>
       </c>
       <c r="D557" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E557" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="558" ht="12.75"/>
@@ -6141,13 +6132,13 @@
         <v>12</v>
       </c>
       <c r="C563" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D563" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E563" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="564" ht="12.75"/>
@@ -6180,7 +6171,7 @@
         <v>7</v>
       </c>
       <c r="C568" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D568" t="s">
         <v>58</v>
@@ -6197,13 +6188,13 @@
         <v>12</v>
       </c>
       <c r="C569" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D569" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E569" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="570" ht="12.75"/>
@@ -6258,10 +6249,10 @@
         <v>33</v>
       </c>
       <c r="D577" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E577" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="578" ht="12.75"/>
@@ -6311,13 +6302,13 @@
         <v>12</v>
       </c>
       <c r="C583" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D583" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E583" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="584" ht="12.75"/>
@@ -6367,13 +6358,13 @@
         <v>12</v>
       </c>
       <c r="C589" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D589" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E589" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="590" ht="12.75"/>
@@ -6423,13 +6414,13 @@
         <v>12</v>
       </c>
       <c r="C595" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D595" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E595" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="596" ht="12.75"/>
@@ -6481,13 +6472,13 @@
         <v>12</v>
       </c>
       <c r="C603" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D603" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E603" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="604" ht="12.75"/>
@@ -6537,13 +6528,13 @@
         <v>12</v>
       </c>
       <c r="C609" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D609" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E609" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="610" ht="12.75"/>
@@ -6576,7 +6567,7 @@
         <v>7</v>
       </c>
       <c r="C614" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D614" t="s">
         <v>57</v>
@@ -6593,13 +6584,13 @@
         <v>12</v>
       </c>
       <c r="C615" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D615" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E615" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="616" ht="12.75"/>
@@ -6632,13 +6623,13 @@
         <v>7</v>
       </c>
       <c r="C620" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D620" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E620" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="12.75">
@@ -6649,13 +6640,13 @@
         <v>12</v>
       </c>
       <c r="C621" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D621" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E621" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="622" ht="12.75"/>
@@ -6707,13 +6698,13 @@
         <v>12</v>
       </c>
       <c r="C629" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D629" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E629" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="630" ht="12.75"/>
@@ -6746,13 +6737,13 @@
         <v>7</v>
       </c>
       <c r="C634" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D634" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E634" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="12.75">
@@ -6819,13 +6810,13 @@
         <v>12</v>
       </c>
       <c r="C641" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D641" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E641" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="642" ht="12.75"/>
@@ -6858,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="C646" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D646" t="s">
         <v>24</v>
@@ -6875,10 +6866,10 @@
         <v>33</v>
       </c>
       <c r="D647" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E647" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="648" ht="12.75"/>
@@ -6930,13 +6921,13 @@
         <v>12</v>
       </c>
       <c r="C655" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D655" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E655" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="656" ht="12.75"/>
@@ -6969,7 +6960,7 @@
         <v>7</v>
       </c>
       <c r="C660" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D660" t="s">
         <v>24</v>
@@ -7039,13 +7030,13 @@
         <v>12</v>
       </c>
       <c r="C667" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D667" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E667" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="668" ht="12.75"/>
@@ -7078,7 +7069,7 @@
         <v>7</v>
       </c>
       <c r="C672" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D672" t="s">
         <v>57</v>
@@ -7095,13 +7086,13 @@
         <v>12</v>
       </c>
       <c r="C673" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D673" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E673" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="674" ht="12.75"/>
@@ -7136,7 +7127,7 @@
         <v>7</v>
       </c>
       <c r="C680" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D680" t="s">
         <v>57</v>
@@ -7153,13 +7144,13 @@
         <v>12</v>
       </c>
       <c r="C681" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D681" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E681" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="682" ht="12.75"/>
@@ -7192,13 +7183,13 @@
         <v>7</v>
       </c>
       <c r="C686" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D686" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E686" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="12.75">
@@ -7209,13 +7200,13 @@
         <v>12</v>
       </c>
       <c r="C687" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D687" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E687" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="688" ht="12.75"/>
@@ -7248,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="C692" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D692" t="s">
         <v>58</v>
@@ -7321,13 +7312,13 @@
         <v>12</v>
       </c>
       <c r="C699" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D699" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E699" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="700" ht="12.75"/>
@@ -7362,7 +7353,7 @@
         <v>7</v>
       </c>
       <c r="C706" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D706" t="s">
         <v>58</v>
@@ -7379,7 +7370,7 @@
         <v>12</v>
       </c>
       <c r="C707" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D707" t="s">
         <v>53</v>
@@ -7421,10 +7412,10 @@
         <v>29</v>
       </c>
       <c r="D712" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E712" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="713" spans="1:4" ht="12.75">
@@ -7588,10 +7579,10 @@
         <v>29</v>
       </c>
       <c r="D732" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E732" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="12.75">
@@ -7602,13 +7593,13 @@
         <v>12</v>
       </c>
       <c r="C733" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D733" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E733" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="734" ht="12.75"/>
@@ -7700,10 +7691,10 @@
         <v>37</v>
       </c>
       <c r="D744" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E744" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="745" spans="1:4" ht="12.75">
@@ -7881,13 +7872,13 @@
         <v>12</v>
       </c>
       <c r="C765" t="s">
+        <v>87</v>
+      </c>
+      <c r="D765" t="s">
+        <v>88</v>
+      </c>
+      <c r="E765" t="s">
         <v>89</v>
-      </c>
-      <c r="D765" t="s">
-        <v>90</v>
-      </c>
-      <c r="E765" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="766" ht="12.75"/>
@@ -7940,10 +7931,10 @@
         <v>33</v>
       </c>
       <c r="D771" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E771" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="772" ht="12.75"/>
@@ -7979,10 +7970,10 @@
         <v>29</v>
       </c>
       <c r="D776" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E776" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="12.75">
@@ -7993,13 +7984,13 @@
         <v>12</v>
       </c>
       <c r="C777" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D777" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E777" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="778" ht="12.75"/>
@@ -8034,7 +8025,7 @@
         <v>7</v>
       </c>
       <c r="C784" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D784" t="s">
         <v>57</v>
@@ -8054,7 +8045,7 @@
         <v>140</v>
       </c>
       <c r="D785" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E785" t="s">
         <v>10</v>
@@ -8093,10 +8084,10 @@
         <v>129</v>
       </c>
       <c r="D790" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E790" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="791" spans="1:4" ht="12.75">
@@ -8143,16 +8134,16 @@
         <v>7</v>
       </c>
       <c r="C796" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D796" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E796" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="797" spans="1:4" ht="12.75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" ht="12.75">
       <c r="A797" t="s">
         <v>11</v>
       </c>
@@ -8160,10 +8151,13 @@
         <v>12</v>
       </c>
       <c r="C797" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D797" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E797" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="798" ht="12.75"/>
@@ -8213,13 +8207,13 @@
         <v>12</v>
       </c>
       <c r="C803" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D803" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E803" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="804" ht="12.75"/>
@@ -8271,13 +8265,13 @@
         <v>12</v>
       </c>
       <c r="C811" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D811" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E811" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="812" ht="12.75"/>
@@ -8310,13 +8304,13 @@
         <v>7</v>
       </c>
       <c r="C816" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D816" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E816" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="817" spans="1:5" ht="12.75">
@@ -8383,13 +8377,13 @@
         <v>12</v>
       </c>
       <c r="C823" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D823" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E823" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="824" ht="12.75"/>
@@ -8494,13 +8488,13 @@
         <v>12</v>
       </c>
       <c r="C837" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D837" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E837" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="838" ht="12.75"/>
@@ -8533,13 +8527,13 @@
         <v>7</v>
       </c>
       <c r="C842" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D842" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E842" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="843" spans="1:5" ht="12.75">
@@ -8550,13 +8544,13 @@
         <v>12</v>
       </c>
       <c r="C843" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D843" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E843" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="844" ht="12.75"/>
@@ -8589,13 +8583,13 @@
         <v>7</v>
       </c>
       <c r="C848" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D848" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E848" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="12.75">
@@ -8662,13 +8656,13 @@
         <v>12</v>
       </c>
       <c r="C855" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D855" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E855" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="856" ht="12.75"/>
@@ -8706,10 +8700,10 @@
         <v>29</v>
       </c>
       <c r="D862" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E862" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="12.75">
@@ -8720,13 +8714,13 @@
         <v>12</v>
       </c>
       <c r="C863" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D863" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E863" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="864" ht="12.75"/>
@@ -8759,13 +8753,13 @@
         <v>7</v>
       </c>
       <c r="C868" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D868" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E868" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="12.75">
@@ -8776,13 +8770,13 @@
         <v>12</v>
       </c>
       <c r="C869" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D869" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E869" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="870" ht="12.75"/>
@@ -8832,13 +8826,13 @@
         <v>12</v>
       </c>
       <c r="C875" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D875" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E875" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="876" ht="12.75"/>
@@ -8888,13 +8882,13 @@
         <v>12</v>
       </c>
       <c r="C881" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D881" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E881" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="882" ht="12.75"/>
@@ -8946,13 +8940,13 @@
         <v>12</v>
       </c>
       <c r="C889" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D889" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E889" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="890" ht="12.75"/>
@@ -8985,13 +8979,13 @@
         <v>7</v>
       </c>
       <c r="C894" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D894" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E894" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="895" spans="1:5" ht="12.75">
@@ -9002,13 +8996,13 @@
         <v>12</v>
       </c>
       <c r="C895" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D895" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E895" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="896" ht="12.75"/>
@@ -9058,13 +9052,13 @@
         <v>12</v>
       </c>
       <c r="C901" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D901" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E901" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="902" ht="12.75"/>
@@ -9097,13 +9091,13 @@
         <v>7</v>
       </c>
       <c r="C906" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D906" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E906" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="907" spans="1:5" ht="12.75">
@@ -9114,13 +9108,13 @@
         <v>12</v>
       </c>
       <c r="C907" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D907" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E907" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="908" ht="12.75"/>
@@ -9155,13 +9149,13 @@
         <v>7</v>
       </c>
       <c r="C914" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D914" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E914" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="915" spans="1:5" ht="12.75">
@@ -9211,13 +9205,13 @@
         <v>7</v>
       </c>
       <c r="C920" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D920" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E920" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="921" spans="1:5" ht="12.75">
@@ -9228,13 +9222,13 @@
         <v>12</v>
       </c>
       <c r="C921" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D921" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E921" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="922" ht="12.75"/>
@@ -9267,13 +9261,13 @@
         <v>7</v>
       </c>
       <c r="C926" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D926" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E926" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="927" spans="1:5" ht="12.75">
@@ -9284,13 +9278,13 @@
         <v>12</v>
       </c>
       <c r="C927" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D927" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E927" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="928" ht="12.75"/>
@@ -9323,10 +9317,10 @@
         <v>7</v>
       </c>
       <c r="C932" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D932" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E932" t="s">
         <v>10</v>
@@ -9340,7 +9334,7 @@
         <v>12</v>
       </c>
       <c r="C933" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D933" t="s">
         <v>226</v>
@@ -9381,7 +9375,7 @@
         <v>7</v>
       </c>
       <c r="C940" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D940" t="s">
         <v>53</v>
@@ -9398,13 +9392,13 @@
         <v>12</v>
       </c>
       <c r="C941" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D941" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E941" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="942" ht="12.75"/>
@@ -9493,7 +9487,7 @@
         <v>7</v>
       </c>
       <c r="C952" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D952" t="s">
         <v>24</v>
@@ -9563,13 +9557,13 @@
         <v>12</v>
       </c>
       <c r="C959" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D959" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E959" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="960" ht="12.75"/>
@@ -9607,10 +9601,10 @@
         <v>37</v>
       </c>
       <c r="D966" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E966" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="967" spans="1:5" ht="12.75">
@@ -9621,7 +9615,7 @@
         <v>12</v>
       </c>
       <c r="C967" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D967" t="s">
         <v>226</v>
@@ -9660,7 +9654,7 @@
         <v>7</v>
       </c>
       <c r="C972" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D972" t="s">
         <v>24</v>
@@ -9730,13 +9724,13 @@
         <v>12</v>
       </c>
       <c r="C979" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D979" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E979" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="980" ht="12.75"/>
@@ -9769,7 +9763,7 @@
         <v>7</v>
       </c>
       <c r="C984" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D984" t="s">
         <v>24</v>
@@ -9786,10 +9780,10 @@
         <v>33</v>
       </c>
       <c r="D985" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E985" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="986" ht="12.75"/>
@@ -9824,7 +9818,7 @@
         <v>7</v>
       </c>
       <c r="C992" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D992" t="s">
         <v>24</v>
@@ -9838,13 +9832,13 @@
         <v>12</v>
       </c>
       <c r="C993" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D993" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E993" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="994" ht="12.75"/>
@@ -9933,13 +9927,13 @@
         <v>7</v>
       </c>
       <c r="C1004" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1004" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E1004" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1005" spans="1:5" ht="12.75">
@@ -9950,13 +9944,13 @@
         <v>12</v>
       </c>
       <c r="C1005" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1005" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1005" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1006" ht="12.75"/>
@@ -9989,7 +9983,7 @@
         <v>7</v>
       </c>
       <c r="C1010" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1010" t="s">
         <v>53</v>
@@ -10006,13 +10000,13 @@
         <v>12</v>
       </c>
       <c r="C1011" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1011" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1011" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1012" ht="12.75"/>
@@ -10047,7 +10041,7 @@
         <v>7</v>
       </c>
       <c r="C1018" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1018" t="s">
         <v>24</v>
